--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H2">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.157317599593801</v>
+        <v>0.1790343333333333</v>
       </c>
       <c r="N2">
-        <v>0.157317599593801</v>
+        <v>0.537103</v>
       </c>
       <c r="O2">
-        <v>0.004893467376962752</v>
+        <v>0.00485560647444994</v>
       </c>
       <c r="P2">
-        <v>0.004893467376962752</v>
+        <v>0.00522711558998419</v>
       </c>
       <c r="Q2">
-        <v>0.2111953983546258</v>
+        <v>0.287719631864</v>
       </c>
       <c r="R2">
-        <v>0.2111953983546258</v>
+        <v>2.589476686776</v>
       </c>
       <c r="S2">
-        <v>0.004893467376962752</v>
+        <v>0.00485560647444994</v>
       </c>
       <c r="T2">
-        <v>0.004893467376962752</v>
+        <v>0.00522711558998419</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +596,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H3">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +614,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.1302083663981</v>
+        <v>28.61718033333333</v>
       </c>
       <c r="N3">
-        <v>24.1302083663981</v>
+        <v>85.851541</v>
       </c>
       <c r="O3">
-        <v>0.75058599765805</v>
+        <v>0.7761291564580808</v>
       </c>
       <c r="P3">
-        <v>0.75058599765805</v>
+        <v>0.8355118634326505</v>
       </c>
       <c r="Q3">
-        <v>32.39427108905865</v>
+        <v>45.98964029520801</v>
       </c>
       <c r="R3">
-        <v>32.39427108905865</v>
+        <v>413.906762656872</v>
       </c>
       <c r="S3">
-        <v>0.75058599765805</v>
+        <v>0.7761291564580808</v>
       </c>
       <c r="T3">
-        <v>0.75058599765805</v>
+        <v>0.8355118634326505</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +658,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H4">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +676,158 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.86096660073365</v>
+        <v>0.184753</v>
       </c>
       <c r="N4">
-        <v>7.86096660073365</v>
+        <v>0.5542590000000001</v>
       </c>
       <c r="O4">
-        <v>0.2445205349649873</v>
+        <v>0.005010702954409397</v>
       </c>
       <c r="P4">
-        <v>0.2445205349649873</v>
+        <v>0.005394078714490606</v>
       </c>
       <c r="Q4">
-        <v>10.55317381514237</v>
+        <v>0.2969098951920001</v>
       </c>
       <c r="R4">
-        <v>10.55317381514237</v>
+        <v>2.672189056728</v>
       </c>
       <c r="S4">
-        <v>0.2445205349649873</v>
+        <v>0.005010702954409397</v>
       </c>
       <c r="T4">
-        <v>0.2445205349649873</v>
+        <v>0.005394078714490606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.607064</v>
+      </c>
+      <c r="H5">
+        <v>4.821192</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.02891466666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.086744</v>
+      </c>
+      <c r="O5">
+        <v>0.0007841973104221829</v>
+      </c>
+      <c r="P5">
+        <v>0.0008441973229298452</v>
+      </c>
+      <c r="Q5">
+        <v>0.046467719872</v>
+      </c>
+      <c r="R5">
+        <v>0.418209478848</v>
+      </c>
+      <c r="S5">
+        <v>0.0007841973104221829</v>
+      </c>
+      <c r="T5">
+        <v>0.0008441973229298452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.607064</v>
+      </c>
+      <c r="H6">
+        <v>4.821192</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>7.8617905</v>
+      </c>
+      <c r="N6">
+        <v>15.723581</v>
+      </c>
+      <c r="O6">
+        <v>0.2132203368026377</v>
+      </c>
+      <c r="P6">
+        <v>0.1530227449399449</v>
+      </c>
+      <c r="Q6">
+        <v>12.634400488092</v>
+      </c>
+      <c r="R6">
+        <v>75.80640292855199</v>
+      </c>
+      <c r="S6">
+        <v>0.2132203368026377</v>
+      </c>
+      <c r="T6">
+        <v>0.1530227449399449</v>
       </c>
     </row>
   </sheetData>
